--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -15,8 +15,110 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>BECE Index Number</t>
+  </si>
+  <si>
+    <t>Elective 1</t>
+  </si>
+  <si>
+    <t>Elective 2</t>
+  </si>
+  <si>
+    <t>Elective 3</t>
+  </si>
+  <si>
+    <t>Elective 4</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Parent Contact</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>3 Science 12</t>
+  </si>
+  <si>
+    <t>General Science</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Principles of Costing</t>
+  </si>
+  <si>
+    <t>Elective Mathematics</t>
+  </si>
+  <si>
+    <t>Financial Accounting</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Other Names</t>
+  </si>
+  <si>
+    <t>Bayaan</t>
+  </si>
+  <si>
+    <t>Kooli</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Nasir</t>
+  </si>
+  <si>
+    <t>0105080036</t>
+  </si>
+  <si>
+    <t>010123012</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(\+\ ###0_);"/>
+    <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -46,8 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,13 +447,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1">
+        <v>233551442796</v>
+      </c>
+      <c r="M3" s="2">
+        <v>38431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1">
+        <v>233551442796</v>
+      </c>
+      <c r="M4" s="2">
+        <v>38431</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
